--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.14103928913508</v>
+        <v>6.280958000000001</v>
       </c>
       <c r="H2">
-        <v>5.14103928913508</v>
+        <v>18.842874</v>
       </c>
       <c r="I2">
-        <v>0.7795201238545517</v>
+        <v>0.6685492943889205</v>
       </c>
       <c r="J2">
-        <v>0.7795201238545517</v>
+        <v>0.7390837911992548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N2">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O2">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P2">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q2">
-        <v>6.676520186258287</v>
+        <v>9.491243567212003</v>
       </c>
       <c r="R2">
-        <v>6.676520186258287</v>
+        <v>85.42119210490802</v>
       </c>
       <c r="S2">
-        <v>0.01588652024202195</v>
+        <v>0.01498786460443272</v>
       </c>
       <c r="T2">
-        <v>0.01588652024202195</v>
+        <v>0.01835852689939035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.14103928913508</v>
+        <v>6.280958000000001</v>
       </c>
       <c r="H3">
-        <v>5.14103928913508</v>
+        <v>18.842874</v>
       </c>
       <c r="I3">
-        <v>0.7795201238545517</v>
+        <v>0.6685492943889205</v>
       </c>
       <c r="J3">
-        <v>0.7795201238545517</v>
+        <v>0.7390837911992548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N3">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P3">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q3">
-        <v>219.6009152796161</v>
+        <v>289.8898322893854</v>
       </c>
       <c r="R3">
-        <v>219.6009152796161</v>
+        <v>2609.008490604468</v>
       </c>
       <c r="S3">
-        <v>0.5225318412032443</v>
+        <v>0.4577724221054086</v>
       </c>
       <c r="T3">
-        <v>0.5225318412032443</v>
+        <v>0.56072212732264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.14103928913508</v>
+        <v>6.280958000000001</v>
       </c>
       <c r="H4">
-        <v>5.14103928913508</v>
+        <v>18.842874</v>
       </c>
       <c r="I4">
-        <v>0.7795201238545517</v>
+        <v>0.6685492943889205</v>
       </c>
       <c r="J4">
-        <v>0.7795201238545517</v>
+        <v>0.7390837911992548</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="N4">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O4">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P4">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q4">
-        <v>101.3262035451993</v>
+        <v>0.190426084644</v>
       </c>
       <c r="R4">
-        <v>101.3262035451993</v>
+        <v>1.713834761796</v>
       </c>
       <c r="S4">
-        <v>0.2411017624092856</v>
+        <v>0.0003007066833324231</v>
       </c>
       <c r="T4">
-        <v>0.2411017624092856</v>
+        <v>0.0003683334404523527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.181160396359902</v>
+        <v>6.280958000000001</v>
       </c>
       <c r="H5">
-        <v>0.181160396359902</v>
+        <v>18.842874</v>
       </c>
       <c r="I5">
-        <v>0.02746879894624746</v>
+        <v>0.6685492943889205</v>
       </c>
       <c r="J5">
-        <v>0.02746879894624746</v>
+        <v>0.7390837911992548</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29867130180628</v>
+        <v>19.7096195</v>
       </c>
       <c r="N5">
-        <v>1.29867130180628</v>
+        <v>39.419239</v>
       </c>
       <c r="O5">
-        <v>0.02037987186715166</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P5">
-        <v>0.02037987186715166</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q5">
-        <v>0.2352678077764556</v>
+        <v>123.795292275481</v>
       </c>
       <c r="R5">
-        <v>0.2352678077764556</v>
+        <v>742.7717536528861</v>
       </c>
       <c r="S5">
-        <v>0.0005598106028690738</v>
+        <v>0.1954883009957468</v>
       </c>
       <c r="T5">
-        <v>0.0005598106028690738</v>
+        <v>0.159634803536772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.181160396359902</v>
+        <v>0.2744136666666667</v>
       </c>
       <c r="H6">
-        <v>0.181160396359902</v>
+        <v>0.823241</v>
       </c>
       <c r="I6">
-        <v>0.02746879894624746</v>
+        <v>0.02920877089461137</v>
       </c>
       <c r="J6">
-        <v>0.02746879894624746</v>
+        <v>0.03229040746919316</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.7152766063691</v>
+        <v>1.511114</v>
       </c>
       <c r="N6">
-        <v>42.7152766063691</v>
+        <v>4.533342</v>
       </c>
       <c r="O6">
-        <v>0.6703250181912453</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P6">
-        <v>0.6703250181912453</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q6">
-        <v>7.738316440632676</v>
+        <v>0.4146703334913334</v>
       </c>
       <c r="R6">
-        <v>7.738316440632676</v>
+        <v>3.732033001422</v>
       </c>
       <c r="S6">
-        <v>0.01841302315333499</v>
+        <v>0.0006548164916253114</v>
       </c>
       <c r="T6">
-        <v>0.01841302315333499</v>
+        <v>0.0008020799822352474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.181160396359902</v>
+        <v>0.2744136666666667</v>
       </c>
       <c r="H7">
-        <v>0.181160396359902</v>
+        <v>0.823241</v>
       </c>
       <c r="I7">
-        <v>0.02746879894624746</v>
+        <v>0.02920877089461137</v>
       </c>
       <c r="J7">
-        <v>0.02746879894624746</v>
+        <v>0.03229040746919316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.7092840273248</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N7">
-        <v>19.7092840273248</v>
+        <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.309295109941603</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P7">
-        <v>0.309295109941603</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q7">
-        <v>3.570541706360046</v>
+        <v>12.66522269499578</v>
       </c>
       <c r="R7">
-        <v>3.570541706360046</v>
+        <v>113.987004254962</v>
       </c>
       <c r="S7">
-        <v>0.008495965190043399</v>
+        <v>0.01999997593501282</v>
       </c>
       <c r="T7">
-        <v>0.008495965190043399</v>
+        <v>0.02449782579978073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0668789268635388</v>
+        <v>0.2744136666666667</v>
       </c>
       <c r="H8">
-        <v>0.0668789268635388</v>
+        <v>0.823241</v>
       </c>
       <c r="I8">
-        <v>0.01014064791570502</v>
+        <v>0.02920877089461137</v>
       </c>
       <c r="J8">
-        <v>0.01014064791570502</v>
+        <v>0.03229040746919316</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29867130180628</v>
+        <v>0.030318</v>
       </c>
       <c r="N8">
-        <v>1.29867130180628</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O8">
-        <v>0.02037987186715166</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P8">
-        <v>0.02037987186715166</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q8">
-        <v>0.08685374301327893</v>
+        <v>0.008319673546</v>
       </c>
       <c r="R8">
-        <v>0.08685374301327893</v>
+        <v>0.074877061914</v>
       </c>
       <c r="S8">
-        <v>0.0002066651051719669</v>
+        <v>1.313780852609147E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002066651051719669</v>
+        <v>1.609240659633107E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0668789268635388</v>
+        <v>0.2744136666666667</v>
       </c>
       <c r="H9">
-        <v>0.0668789268635388</v>
+        <v>0.823241</v>
       </c>
       <c r="I9">
-        <v>0.01014064791570502</v>
+        <v>0.02920877089461137</v>
       </c>
       <c r="J9">
-        <v>0.01014064791570502</v>
+        <v>0.03229040746919316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.7152766063691</v>
+        <v>19.7096195</v>
       </c>
       <c r="N9">
-        <v>42.7152766063691</v>
+        <v>39.419239</v>
       </c>
       <c r="O9">
-        <v>0.6703250181912453</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P9">
-        <v>0.6703250181912453</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q9">
-        <v>2.856751860113189</v>
+        <v>5.408588955599834</v>
       </c>
       <c r="R9">
-        <v>2.856751860113189</v>
+        <v>32.45153373359901</v>
       </c>
       <c r="S9">
-        <v>0.006797529998565983</v>
+        <v>0.008540840659447152</v>
       </c>
       <c r="T9">
-        <v>0.006797529998565983</v>
+        <v>0.006974409280580855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.0668789268635388</v>
+        <v>0.08208066666666668</v>
       </c>
       <c r="H10">
-        <v>0.0668789268635388</v>
+        <v>0.246242</v>
       </c>
       <c r="I10">
-        <v>0.01014064791570502</v>
+        <v>0.008736720064514394</v>
       </c>
       <c r="J10">
-        <v>0.01014064791570502</v>
+        <v>0.00965847730619474</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.7092840273248</v>
+        <v>1.511114</v>
       </c>
       <c r="N10">
-        <v>19.7092840273248</v>
+        <v>4.533342</v>
       </c>
       <c r="O10">
-        <v>0.309295109941603</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P10">
-        <v>0.309295109941603</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q10">
-        <v>1.318135764996169</v>
+        <v>0.1240332445293334</v>
       </c>
       <c r="R10">
-        <v>1.318135764996169</v>
+        <v>1.116299200764</v>
       </c>
       <c r="S10">
-        <v>0.003136452811967073</v>
+        <v>0.0001958640574640961</v>
       </c>
       <c r="T10">
-        <v>0.003136452811967073</v>
+        <v>0.0002399124666842053</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.20605489582315</v>
+        <v>0.08208066666666668</v>
       </c>
       <c r="H11">
-        <v>1.20605489582315</v>
+        <v>0.246242</v>
       </c>
       <c r="I11">
-        <v>0.1828704292834959</v>
+        <v>0.008736720064514394</v>
       </c>
       <c r="J11">
-        <v>0.1828704292834959</v>
+        <v>0.00965847730619474</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.29867130180628</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N11">
-        <v>1.29867130180628</v>
+        <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.02037987186715166</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P11">
-        <v>0.02037987186715166</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q11">
-        <v>1.566268881608488</v>
+        <v>3.788331444693778</v>
       </c>
       <c r="R11">
-        <v>1.566268881608488</v>
+        <v>34.094983002244</v>
       </c>
       <c r="S11">
-        <v>0.003726875917088664</v>
+        <v>0.005982250731182517</v>
       </c>
       <c r="T11">
-        <v>0.003726875917088664</v>
+        <v>0.007327615632104823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.20605489582315</v>
+        <v>0.08208066666666668</v>
       </c>
       <c r="H12">
-        <v>1.20605489582315</v>
+        <v>0.246242</v>
       </c>
       <c r="I12">
-        <v>0.1828704292834959</v>
+        <v>0.008736720064514394</v>
       </c>
       <c r="J12">
-        <v>0.1828704292834959</v>
+        <v>0.00965847730619474</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>42.7152766063691</v>
+        <v>0.030318</v>
       </c>
       <c r="N12">
-        <v>42.7152766063691</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O12">
-        <v>0.6703250181912453</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P12">
-        <v>0.6703250181912453</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q12">
-        <v>51.51696847755153</v>
+        <v>0.002488521652</v>
       </c>
       <c r="R12">
-        <v>51.51696847755153</v>
+        <v>0.022396694868</v>
       </c>
       <c r="S12">
-        <v>0.1225826238361002</v>
+        <v>3.929687961461852E-06</v>
       </c>
       <c r="T12">
-        <v>0.1225826238361002</v>
+        <v>4.813446348145629E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08208066666666668</v>
+      </c>
+      <c r="H13">
+        <v>0.246242</v>
+      </c>
+      <c r="I13">
+        <v>0.008736720064514394</v>
+      </c>
+      <c r="J13">
+        <v>0.00965847730619474</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.7096195</v>
+      </c>
+      <c r="N13">
+        <v>39.419239</v>
+      </c>
+      <c r="O13">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P13">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q13">
+        <v>1.617778708306334</v>
+      </c>
+      <c r="R13">
+        <v>9.706672249838002</v>
+      </c>
+      <c r="S13">
+        <v>0.002554675587906319</v>
+      </c>
+      <c r="T13">
+        <v>0.002086135761057565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.067644</v>
+      </c>
+      <c r="H14">
+        <v>0.202932</v>
+      </c>
+      <c r="I14">
+        <v>0.007200071783578896</v>
+      </c>
+      <c r="J14">
+        <v>0.00795970677910637</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.511114</v>
+      </c>
+      <c r="N14">
+        <v>4.533342</v>
+      </c>
+      <c r="O14">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P14">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q14">
+        <v>0.102217795416</v>
+      </c>
+      <c r="R14">
+        <v>0.9199601587440001</v>
+      </c>
+      <c r="S14">
+        <v>0.0001614147257953718</v>
+      </c>
+      <c r="T14">
+        <v>0.0001977157296040446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.067644</v>
+      </c>
+      <c r="H15">
+        <v>0.202932</v>
+      </c>
+      <c r="I15">
+        <v>0.007200071783578896</v>
+      </c>
+      <c r="J15">
+        <v>0.00795970677910637</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N15">
+        <v>138.461282</v>
+      </c>
+      <c r="O15">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P15">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q15">
+        <v>3.122024986536</v>
+      </c>
+      <c r="R15">
+        <v>28.09822487882399</v>
+      </c>
+      <c r="S15">
+        <v>0.004930069222067439</v>
+      </c>
+      <c r="T15">
+        <v>0.00603880611534302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.067644</v>
+      </c>
+      <c r="H16">
+        <v>0.202932</v>
+      </c>
+      <c r="I16">
+        <v>0.007200071783578896</v>
+      </c>
+      <c r="J16">
+        <v>0.00795970677910637</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.030318</v>
+      </c>
+      <c r="N16">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P16">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q16">
+        <v>0.002050830792</v>
+      </c>
+      <c r="R16">
+        <v>0.018457477128</v>
+      </c>
+      <c r="S16">
+        <v>3.238519169741053E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.966838696574462E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.067644</v>
+      </c>
+      <c r="H17">
+        <v>0.202932</v>
+      </c>
+      <c r="I17">
+        <v>0.007200071783578896</v>
+      </c>
+      <c r="J17">
+        <v>0.00795970677910637</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.7096195</v>
+      </c>
+      <c r="N17">
+        <v>39.419239</v>
+      </c>
+      <c r="O17">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P17">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q17">
+        <v>1.333237501458</v>
+      </c>
+      <c r="R17">
+        <v>7.999425008748001</v>
+      </c>
+      <c r="S17">
+        <v>0.002105349316546345</v>
+      </c>
+      <c r="T17">
+        <v>0.001719218095462731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.68981</v>
+      </c>
+      <c r="H18">
+        <v>5.37962</v>
+      </c>
+      <c r="I18">
+        <v>0.2863051428683749</v>
+      </c>
+      <c r="J18">
+        <v>0.211007617246251</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.511114</v>
+      </c>
+      <c r="N18">
+        <v>4.533342</v>
+      </c>
+      <c r="O18">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P18">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q18">
+        <v>4.06460954834</v>
+      </c>
+      <c r="R18">
+        <v>24.38765729004</v>
+      </c>
+      <c r="S18">
+        <v>0.006418528525688147</v>
+      </c>
+      <c r="T18">
+        <v>0.0052413394304127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.68981</v>
+      </c>
+      <c r="H19">
+        <v>5.37962</v>
+      </c>
+      <c r="I19">
+        <v>0.2863051428683749</v>
+      </c>
+      <c r="J19">
+        <v>0.211007617246251</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N19">
+        <v>138.461282</v>
+      </c>
+      <c r="O19">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P19">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q19">
+        <v>124.1448469788067</v>
+      </c>
+      <c r="R19">
+        <v>744.86908187284</v>
+      </c>
+      <c r="S19">
+        <v>0.1960402917362843</v>
+      </c>
+      <c r="T19">
+        <v>0.1600855565126329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.20605489582315</v>
-      </c>
-      <c r="H13">
-        <v>1.20605489582315</v>
-      </c>
-      <c r="I13">
-        <v>0.1828704292834959</v>
-      </c>
-      <c r="J13">
-        <v>0.1828704292834959</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="N13">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="O13">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="P13">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="Q13">
-        <v>23.77047849432408</v>
-      </c>
-      <c r="R13">
-        <v>23.77047849432408</v>
-      </c>
-      <c r="S13">
-        <v>0.056560929530307</v>
-      </c>
-      <c r="T13">
-        <v>0.056560929530307</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.68981</v>
+      </c>
+      <c r="H20">
+        <v>5.37962</v>
+      </c>
+      <c r="I20">
+        <v>0.2863051428683749</v>
+      </c>
+      <c r="J20">
+        <v>0.211007617246251</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030318</v>
+      </c>
+      <c r="N20">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P20">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q20">
+        <v>0.08154965957999999</v>
+      </c>
+      <c r="R20">
+        <v>0.48929795748</v>
+      </c>
+      <c r="S20">
+        <v>0.0001287771457625389</v>
+      </c>
+      <c r="T20">
+        <v>0.0001051587959950422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.68981</v>
+      </c>
+      <c r="H21">
+        <v>5.37962</v>
+      </c>
+      <c r="I21">
+        <v>0.2863051428683749</v>
+      </c>
+      <c r="J21">
+        <v>0.211007617246251</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.7096195</v>
+      </c>
+      <c r="N21">
+        <v>39.419239</v>
+      </c>
+      <c r="O21">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P21">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q21">
+        <v>53.01513162729501</v>
+      </c>
+      <c r="R21">
+        <v>212.06052650918</v>
+      </c>
+      <c r="S21">
+        <v>0.08371754546063988</v>
+      </c>
+      <c r="T21">
+        <v>0.04557556250721038</v>
       </c>
     </row>
   </sheetData>
